--- a/Practica2/material/INDITEX ESG.xlsx
+++ b/Practica2/material/INDITEX ESG.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Environmental" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3912" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3984" uniqueCount="729">
   <si>
     <t xml:space="preserve">Industria de Diseno Textil SA  |  16-02-2018  |  1:15:08 PM</t>
   </si>
@@ -988,6 +988,9 @@
     <t xml:space="preserve">Mujeres directivas</t>
   </si>
   <si>
+    <t xml:space="preserve">Brecha salarial</t>
+  </si>
+  <si>
     <t xml:space="preserve">Workforce</t>
   </si>
   <si>
@@ -1630,12 +1633,33 @@
     <t xml:space="preserve">Policy Board Experience</t>
   </si>
   <si>
+    <t xml:space="preserve">Audit Committee Independence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">66,67%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">85,71%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">83,33%</t>
+  </si>
+  <si>
     <t xml:space="preserve">Policy Executive Compensation Performance</t>
   </si>
   <si>
+    <t xml:space="preserve">Compensation Committee Independence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">75%</t>
+  </si>
+  <si>
     <t xml:space="preserve">Policy Executive Compensation ESG Performance</t>
   </si>
   <si>
+    <t xml:space="preserve">Nomination Committee Independence</t>
+  </si>
+  <si>
     <t xml:space="preserve">Policy Executive Retention</t>
   </si>
   <si>
@@ -1651,18 +1675,6 @@
     <t xml:space="preserve">External Consultants</t>
   </si>
   <si>
-    <t xml:space="preserve">Audit Committee Independence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">66,67%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">85,71%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">83,33%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Audit Committee Mgt Independence</t>
   </si>
   <si>
@@ -1672,12 +1684,6 @@
     <t xml:space="preserve">Audit Committee NonExecutive Members</t>
   </si>
   <si>
-    <t xml:space="preserve">Compensation Committee Independence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75%</t>
-  </si>
-  <si>
     <t xml:space="preserve">Compensation Committee Mgt Independence</t>
   </si>
   <si>
@@ -1685,9 +1691,6 @@
   </si>
   <si>
     <t xml:space="preserve">71,43%</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nomination Committee Independence</t>
   </si>
   <si>
     <t xml:space="preserve">Nomination Committee Mgt Independence</t>
@@ -2217,13 +2220,12 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2242,21 +2244,89 @@
     </font>
     <font>
       <b val="true"/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF006600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF996600"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFCC0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2266,12 +2336,54 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCCC"/>
+        <bgColor rgb="FFDDDDDD"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC0000"/>
+        <bgColor rgb="FF800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF000000"/>
+        <bgColor rgb="FF003300"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF666699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFC3CDDD"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -2282,16 +2394,31 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC3CDDD"/>
-        <bgColor rgb="FF99CCFF"/>
+        <bgColor rgb="FFDDDDDD"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin">
+        <color rgb="FF808080"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF808080"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF808080"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF808080"/>
+      </bottom>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
@@ -2302,7 +2429,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
+  <cellStyleXfs count="36">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2326,25 +2453,73 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2356,29 +2531,49 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="22">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
   </cellStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FFCC0000"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
       <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF006600"/>
       <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF996600"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFB3B3B3"/>
@@ -2386,7 +2581,7 @@
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0084D1"/>
@@ -2406,11 +2601,11 @@
       <rgbColor rgb="FF99CCFF"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FFFFCCCC"/>
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFD320"/>
       <rgbColor rgb="FFFF950E"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
@@ -2475,6 +2670,7 @@
     <c:plotArea>
       <c:lineChart>
         <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2510,6 +2706,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2631,6 +2828,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -2725,11 +2923,146 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="1"/>
-        <c:axId val="15548961"/>
-        <c:axId val="93854204"/>
+        <c:axId val="78570085"/>
+        <c:axId val="79087235"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Social!$N$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Brecha salarial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ffd320"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ffd320"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Social!$O$4:$X$4</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2017</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Social!$O$7:$X$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>318</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v/>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v/>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:hiLowLines>
+          <c:spPr>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:hiLowLines>
+        <c:marker val="1"/>
+        <c:axId val="96340572"/>
+        <c:axId val="38645491"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="15548961"/>
+        <c:axId val="78570085"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2764,14 +3097,14 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="93854204"/>
+        <c:crossAx val="79087235"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="93854204"/>
+        <c:axId val="79087235"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2786,6 +3119,46 @@
             </a:ln>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="78570085"/>
+        <c:crossesAt val="1"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="96340572"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="t"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -2815,8 +3188,51 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="15548961"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="38645491"/>
+        <c:crosses val="max"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="38645491"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="400"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:uFill>
+                  <a:solidFill>
+                    <a:srgbClr val="ffffff"/>
+                  </a:solidFill>
+                </a:uFill>
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="96340572"/>
+        <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2857,15 +3273,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>10080</xdr:colOff>
+      <xdr:colOff>12600</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>20160</xdr:rowOff>
+      <xdr:rowOff>3240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>25920</xdr:colOff>
+      <xdr:colOff>28800</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>212040</xdr:rowOff>
+      <xdr:rowOff>227160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2873,8 +3289,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="15383160" y="1673640"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="15385680" y="1641240"/>
+        <a:ext cx="5760000" cy="3272040"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2894,15 +3310,15 @@
   </sheetPr>
   <dimension ref="A1:AP105"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="M10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AB23" activeCellId="0" sqref="AB23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="AB23" activeCellId="1" sqref="M24:W26 AB23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="11" min="2" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.04591836734694"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="2" style="0" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="9.05"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6718,7 +7134,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -6733,15 +7149,15 @@
   </sheetPr>
   <dimension ref="A1:X116"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X12" activeCellId="0" sqref="X12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P35" activeCellId="1" sqref="M24:W26 P35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="11" min="2" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.04591836734694"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="2" style="0" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="9.05"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7008,7 +7424,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="3" t="s">
         <v>22</v>
       </c>
@@ -7041,6 +7457,39 @@
       </c>
       <c r="K7" s="3" t="s">
         <v>32</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>321</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>32</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>39</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>19</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>215</v>
+      </c>
+      <c r="S7" s="0" t="n">
+        <v>318</v>
+      </c>
+      <c r="T7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="U7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="V7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="W7" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="X7" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7256,7 +7705,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>55</v>
@@ -7291,7 +7740,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>57</v>
@@ -7326,7 +7775,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>57</v>
@@ -7361,7 +7810,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>57</v>
@@ -7396,7 +7845,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>57</v>
@@ -7431,7 +7880,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>57</v>
@@ -7466,7 +7915,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>57</v>
@@ -7501,7 +7950,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>57</v>
@@ -7536,7 +7985,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>59</v>
@@ -7571,7 +8020,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>57</v>
@@ -7606,7 +8055,7 @@
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>57</v>
@@ -7641,7 +8090,7 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>57</v>
@@ -7676,7 +8125,7 @@
     </row>
     <row r="26" customFormat="false" ht="20.95" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>57</v>
@@ -7711,7 +8160,7 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>57</v>
@@ -7746,7 +8195,7 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>41</v>
@@ -7764,118 +8213,118 @@
         <v>41</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K28" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="J29" s="4" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="K29" s="4" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K30" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="J31" s="4" t="s">
         <v>41</v>
@@ -7886,28 +8335,28 @@
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>41</v>
@@ -7921,19 +8370,19 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>41</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>41</v>
@@ -7956,42 +8405,42 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J34" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>59</v>
@@ -8026,7 +8475,7 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>59</v>
@@ -8061,42 +8510,42 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="K37" s="4" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>41</v>
@@ -8120,10 +8569,10 @@
         <v>41</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="J38" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>41</v>
@@ -8131,7 +8580,7 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>57</v>
@@ -8166,7 +8615,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>59</v>
@@ -8201,16 +8650,16 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="E41" s="4" t="s">
         <v>41</v>
@@ -8236,7 +8685,7 @@
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>57</v>
@@ -8271,19 +8720,19 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>41</v>
@@ -8292,33 +8741,33 @@
         <v>41</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J43" s="4" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="K43" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>41</v>
@@ -8327,21 +8776,21 @@
         <v>41</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="J44" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="K44" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>41</v>
@@ -8368,15 +8817,15 @@
         <v>41</v>
       </c>
       <c r="J45" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>41</v>
@@ -8403,15 +8852,15 @@
         <v>41</v>
       </c>
       <c r="J46" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="K46" s="4" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>57</v>
@@ -8446,7 +8895,7 @@
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>57</v>
@@ -8481,7 +8930,7 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>57</v>
@@ -8516,7 +8965,7 @@
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>59</v>
@@ -8551,13 +9000,13 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>41</v>
@@ -8586,7 +9035,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>55</v>
@@ -8621,7 +9070,7 @@
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>57</v>
@@ -8656,7 +9105,7 @@
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>57</v>
@@ -8691,7 +9140,7 @@
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>57</v>
@@ -8726,7 +9175,7 @@
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>57</v>
@@ -8761,7 +9210,7 @@
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>57</v>
@@ -8796,7 +9245,7 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>57</v>
@@ -8831,7 +9280,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>57</v>
@@ -8866,7 +9315,7 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B60" s="4" t="s">
         <v>59</v>
@@ -8901,7 +9350,7 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>57</v>
@@ -8936,7 +9385,7 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>55</v>
@@ -8960,10 +9409,10 @@
         <v>14</v>
       </c>
       <c r="I62" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J62" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>14</v>
@@ -8971,7 +9420,7 @@
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>57</v>
@@ -9006,7 +9455,7 @@
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>57</v>
@@ -9041,7 +9490,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>57</v>
@@ -9076,7 +9525,7 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>57</v>
@@ -9111,7 +9560,7 @@
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>57</v>
@@ -9146,7 +9595,7 @@
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>57</v>
@@ -9181,7 +9630,7 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>59</v>
@@ -9216,7 +9665,7 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>59</v>
@@ -9251,77 +9700,77 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="K71" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>57</v>
@@ -9356,7 +9805,7 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>57</v>
@@ -9391,7 +9840,7 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>59</v>
@@ -9426,7 +9875,7 @@
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>59</v>
@@ -9461,7 +9910,7 @@
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A77" s="4" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>59</v>
@@ -9496,7 +9945,7 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>57</v>
@@ -9531,7 +9980,7 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>59</v>
@@ -9566,7 +10015,7 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>41</v>
@@ -9578,19 +10027,19 @@
         <v>41</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H80" s="4" t="s">
         <v>41</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="J80" s="4" t="s">
         <v>41</v>
@@ -9601,31 +10050,31 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A81" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="F81" s="4" t="s">
         <v>482</v>
       </c>
-      <c r="B81" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>481</v>
-      </c>
       <c r="G81" s="4" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="J81" s="4" t="s">
         <v>41</v>
@@ -9636,31 +10085,31 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A82" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="F82" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="B82" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>483</v>
-      </c>
       <c r="G82" s="4" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="J82" s="4" t="s">
         <v>41</v>
@@ -9671,31 +10120,31 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A83" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="F83" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="B83" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>485</v>
-      </c>
       <c r="G83" s="4" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="J83" s="4" t="s">
         <v>41</v>
@@ -9706,31 +10155,31 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A84" s="4" t="s">
+        <v>489</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="F84" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>485</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>487</v>
-      </c>
       <c r="G84" s="4" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="J84" s="4" t="s">
         <v>41</v>
@@ -9741,7 +10190,7 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>55</v>
@@ -9776,7 +10225,7 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>57</v>
@@ -9811,7 +10260,7 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>57</v>
@@ -9846,7 +10295,7 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>59</v>
@@ -9881,7 +10330,7 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>59</v>
@@ -9916,7 +10365,7 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A90" s="4" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>57</v>
@@ -9951,7 +10400,7 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A91" s="4" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>57</v>
@@ -9986,7 +10435,7 @@
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A92" s="4" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>59</v>
@@ -10021,7 +10470,7 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>57</v>
@@ -10056,7 +10505,7 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>59</v>
@@ -10091,7 +10540,7 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>57</v>
@@ -10126,7 +10575,7 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>59</v>
@@ -10161,7 +10610,7 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>59</v>
@@ -10196,7 +10645,7 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>59</v>
@@ -10231,7 +10680,7 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>41</v>
@@ -10266,7 +10715,7 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>59</v>
@@ -10301,7 +10750,7 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>41</v>
@@ -10336,7 +10785,7 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>59</v>
@@ -10371,7 +10820,7 @@
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>41</v>
@@ -10406,7 +10855,7 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A104" s="4" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>59</v>
@@ -10441,7 +10890,7 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A105" s="4" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B105" s="4" t="s">
         <v>41</v>
@@ -10476,7 +10925,7 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A106" s="4" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>41</v>
@@ -10511,7 +10960,7 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>59</v>
@@ -10546,7 +10995,7 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>59</v>
@@ -10581,7 +11030,7 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A109" s="4" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>59</v>
@@ -10616,7 +11065,7 @@
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A110" s="4" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>59</v>
@@ -10651,7 +11100,7 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A111" s="4" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>59</v>
@@ -10686,7 +11135,7 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A112" s="4" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>59</v>
@@ -10721,7 +11170,7 @@
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>59</v>
@@ -10756,7 +11205,7 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>59</v>
@@ -10791,7 +11240,7 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>41</v>
@@ -10800,7 +11249,7 @@
         <v>41</v>
       </c>
       <c r="D115" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>41</v>
@@ -10826,7 +11275,7 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>59</v>
@@ -10866,7 +11315,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -10880,17 +11329,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K123"/>
+  <dimension ref="A1:W123"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M24" activeCellId="0" sqref="M24:W26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="11" min="2" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.04591836734694"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="2" style="0" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="9.05"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10910,7 +11359,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -11308,7 +11757,7 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>19</v>
@@ -11343,7 +11792,7 @@
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>57</v>
@@ -11378,7 +11827,7 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>59</v>
@@ -11413,7 +11862,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>57</v>
@@ -11448,7 +11897,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>57</v>
@@ -11483,7 +11932,7 @@
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A19" s="4" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>57</v>
@@ -11518,7 +11967,7 @@
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>57</v>
@@ -11553,7 +12002,7 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>57</v>
@@ -11588,7 +12037,7 @@
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>59</v>
@@ -11623,7 +12072,7 @@
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>57</v>
@@ -11656,9 +12105,9 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>57</v>
@@ -11690,10 +12139,43 @@
       <c r="K24" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M24" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="N24" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="O24" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="P24" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="R24" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="T24" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="U24" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="V24" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="W24" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>57</v>
@@ -11725,10 +12207,43 @@
       <c r="K25" s="4" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="M25" s="0" t="s">
+        <v>541</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="S25" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="U25" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="V25" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="W25" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="19.45" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>57</v>
@@ -11759,11 +12274,44 @@
       </c>
       <c r="K26" s="4" t="s">
         <v>59</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>544</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="S26" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="T26" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="U26" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="V26" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="W26" s="5" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>57</v>
@@ -11798,7 +12346,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>57</v>
@@ -11833,133 +12381,199 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A29" s="4" t="s">
+        <v>547</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K29" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="A30" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="I30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M30" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="N30" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="O30" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>539</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H29" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I29" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
-      <c r="A30" s="4" t="s">
-        <v>540</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H30" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="J30" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="K30" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="R30" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="S30" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="T30" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="U30" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="V30" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="W30" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="46.45" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A31" s="4" t="s">
+        <v>549</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="M31" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
+      <c r="N31" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>542</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="R31" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="S31" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="T31" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="U31" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="V31" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="W31" s="7" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="37.45" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="G32" s="4" t="s">
         <v>285</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="I32" s="4" t="s">
         <v>285</v>
@@ -11970,10 +12584,43 @@
       <c r="K32" s="4" t="s">
         <v>285</v>
       </c>
+      <c r="M32" s="4" t="s">
+        <v>544</v>
+      </c>
+      <c r="N32" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>539</v>
+      </c>
+      <c r="R32" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="S32" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="T32" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="U32" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="V32" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="W32" s="7" t="s">
+        <v>285</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>59</v>
@@ -12008,7 +12655,7 @@
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A34" s="4" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>57</v>
@@ -12043,19 +12690,19 @@
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F35" s="4" t="s">
         <v>285</v>
@@ -12078,28 +12725,28 @@
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>285</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="I36" s="4" t="s">
         <v>285</v>
@@ -12113,7 +12760,7 @@
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A37" s="4" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>59</v>
@@ -12148,19 +12795,19 @@
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F38" s="4" t="s">
         <v>285</v>
@@ -12183,19 +12830,19 @@
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>285</v>
@@ -12218,7 +12865,7 @@
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>57</v>
@@ -12253,54 +12900,54 @@
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="J41" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K41" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A42" s="4" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F42" s="4" t="s">
         <v>285</v>
@@ -12323,7 +12970,7 @@
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A43" s="4" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>59</v>
@@ -12358,42 +13005,42 @@
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A44" s="4" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C44" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>563</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>564</v>
+      </c>
+      <c r="J44" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="K44" s="4" t="s">
         <v>561</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="I44" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A45" s="4" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>41</v>
@@ -12402,45 +13049,45 @@
         <v>285</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="H45" s="4" t="s">
+        <v>570</v>
+      </c>
+      <c r="I45" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="I45" s="4" t="s">
-        <v>568</v>
-      </c>
       <c r="J45" s="4" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="K45" s="4" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A46" s="4" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>285</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F46" s="4" t="s">
         <v>41</v>
@@ -12463,42 +13110,42 @@
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A47" s="4" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="J47" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="K47" s="4" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A48" s="4" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>242</v>
@@ -12533,42 +13180,42 @@
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A49" s="4" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="K49" s="4" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A50" s="4" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>59</v>
@@ -12603,217 +13250,217 @@
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="I51" s="4" t="s">
+        <v>584</v>
+      </c>
+      <c r="J51" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="J51" s="4" t="s">
-        <v>582</v>
-      </c>
       <c r="K51" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A52" s="4" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F52" s="4" t="s">
+        <v>588</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>589</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>590</v>
+      </c>
+      <c r="I52" s="4" t="s">
         <v>587</v>
       </c>
-      <c r="G52" s="4" t="s">
-        <v>588</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>589</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>586</v>
-      </c>
       <c r="J52" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="K52" s="4" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A53" s="4" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="J53" s="4" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="K53" s="4" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F54" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="G54" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="G54" s="4" t="s">
-        <v>603</v>
-      </c>
       <c r="H54" s="4" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="J54" s="4" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="K54" s="4" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E55" s="4" t="s">
+        <v>587</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="H55" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="F55" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>543</v>
-      </c>
-      <c r="H55" s="4" t="s">
-        <v>585</v>
-      </c>
       <c r="I55" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="J55" s="4" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="K55" s="4" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A56" s="4" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H56" s="4" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="J56" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="K56" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>57</v>
@@ -12848,7 +13495,7 @@
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>57</v>
@@ -12883,7 +13530,7 @@
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>57</v>
@@ -12918,34 +13565,34 @@
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="E60" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="F60" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="F60" s="4" t="s">
-        <v>615</v>
-      </c>
       <c r="G60" s="4" t="s">
+        <v>617</v>
+      </c>
+      <c r="H60" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="H60" s="4" t="s">
-        <v>615</v>
-      </c>
       <c r="I60" s="4" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="J60" s="4" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="K60" s="4" t="s">
         <v>41</v>
@@ -12953,7 +13600,7 @@
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>59</v>
@@ -12988,77 +13635,77 @@
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A62" s="4" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="J62" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="K62" s="4" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J63" s="4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="K63" s="4" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A64" s="4" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>57</v>
@@ -13093,7 +13740,7 @@
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A65" s="4" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>59</v>
@@ -13128,42 +13775,42 @@
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A66" s="4" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="E66" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="K66" s="4" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A67" s="4" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>41</v>
@@ -13181,24 +13828,24 @@
         <v>41</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="J67" s="4" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="K67" s="4" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A68" s="4" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>59</v>
@@ -13233,7 +13880,7 @@
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A69" s="4" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>59</v>
@@ -13268,7 +13915,7 @@
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A70" s="4" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B70" s="4" t="s">
         <v>59</v>
@@ -13303,7 +13950,7 @@
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A71" s="4" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>57</v>
@@ -13338,42 +13985,42 @@
     </row>
     <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A72" s="4" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F72" s="4" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>41</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="K72" s="4" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A73" s="4" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>242</v>
@@ -13408,7 +14055,7 @@
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A74" s="4" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>59</v>
@@ -13443,84 +14090,84 @@
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A75" s="4" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="I75" s="4" t="s">
+        <v>658</v>
+      </c>
+      <c r="J75" s="4" t="s">
         <v>657</v>
       </c>
-      <c r="J75" s="4" t="s">
-        <v>656</v>
-      </c>
       <c r="K75" s="4" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A76" s="4" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="J76" s="4" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="K76" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="3" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>14</v>
@@ -13532,7 +14179,7 @@
         <v>19</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="I77" s="3" t="s">
         <v>14</v>
@@ -13546,7 +14193,7 @@
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A78" s="4" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B78" s="4" t="s">
         <v>57</v>
@@ -13581,7 +14228,7 @@
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A79" s="4" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>57</v>
@@ -13616,7 +14263,7 @@
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A80" s="4" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>57</v>
@@ -13651,7 +14298,7 @@
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A81" s="4" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>59</v>
@@ -13686,7 +14333,7 @@
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A82" s="4" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>57</v>
@@ -13721,7 +14368,7 @@
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A83" s="4" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>59</v>
@@ -13756,7 +14403,7 @@
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A84" s="4" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>285</v>
@@ -13791,7 +14438,7 @@
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A85" s="4" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>59</v>
@@ -13826,7 +14473,7 @@
     </row>
     <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A86" s="4" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>57</v>
@@ -13861,7 +14508,7 @@
     </row>
     <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A87" s="4" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>57</v>
@@ -13896,7 +14543,7 @@
     </row>
     <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A88" s="4" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>57</v>
@@ -13931,7 +14578,7 @@
     </row>
     <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A89" s="4" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>57</v>
@@ -13966,7 +14613,7 @@
     </row>
     <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A90" s="4" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>59</v>
@@ -14001,42 +14648,42 @@
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A91" s="4" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="J91" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A92" s="4" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B92" s="4" t="s">
         <v>41</v>
@@ -14071,7 +14718,7 @@
     </row>
     <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A93" s="4" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B93" s="4" t="s">
         <v>41</v>
@@ -14106,7 +14753,7 @@
     </row>
     <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A94" s="4" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>59</v>
@@ -14141,7 +14788,7 @@
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A95" s="4" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B95" s="4" t="s">
         <v>57</v>
@@ -14176,7 +14823,7 @@
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A96" s="4" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>57</v>
@@ -14211,7 +14858,7 @@
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A97" s="4" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B97" s="4" t="s">
         <v>57</v>
@@ -14246,7 +14893,7 @@
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A98" s="4" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>59</v>
@@ -14281,7 +14928,7 @@
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A99" s="4" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>41</v>
@@ -14316,7 +14963,7 @@
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A100" s="4" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>59</v>
@@ -14351,7 +14998,7 @@
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A101" s="4" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>41</v>
@@ -14386,7 +15033,7 @@
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A102" s="4" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>41</v>
@@ -14421,7 +15068,7 @@
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A103" s="4" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>57</v>
@@ -14456,7 +15103,7 @@
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A104" s="4" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>57</v>
@@ -14491,31 +15138,31 @@
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A105" s="4" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="J105" s="4" t="s">
         <v>41</v>
@@ -14526,7 +15173,7 @@
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A106" s="4" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B106" s="4" t="s">
         <v>59</v>
@@ -14561,7 +15208,7 @@
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A107" s="4" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="B107" s="4" t="s">
         <v>59</v>
@@ -14596,7 +15243,7 @@
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A108" s="4" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>41</v>
@@ -14611,10 +15258,10 @@
         <v>41</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H108" s="4" t="s">
         <v>41</v>
@@ -14631,42 +15278,42 @@
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A109" s="4" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="D109" s="4" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="J109" s="4" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A110" s="4" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>59</v>
@@ -14701,7 +15348,7 @@
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A111" s="4" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B111" s="4" t="s">
         <v>59</v>
@@ -14736,10 +15383,10 @@
     </row>
     <row r="112" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="3" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>15</v>
@@ -14751,27 +15398,27 @@
         <v>15</v>
       </c>
       <c r="F112" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I112" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="J112" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A113" s="4" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B113" s="4" t="s">
         <v>59</v>
@@ -14806,7 +15453,7 @@
     </row>
     <row r="114" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A114" s="4" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>41</v>
@@ -14841,7 +15488,7 @@
     </row>
     <row r="115" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A115" s="4" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>57</v>
@@ -14876,7 +15523,7 @@
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A116" s="4" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>57</v>
@@ -14911,7 +15558,7 @@
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A117" s="4" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>57</v>
@@ -14946,7 +15593,7 @@
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A118" s="4" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B118" s="4" t="s">
         <v>57</v>
@@ -14981,7 +15628,7 @@
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A119" s="4" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B119" s="4" t="s">
         <v>57</v>
@@ -15016,7 +15663,7 @@
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A120" s="4" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B120" s="4" t="s">
         <v>57</v>
@@ -15051,7 +15698,7 @@
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A121" s="4" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B121" s="4" t="s">
         <v>43</v>
@@ -15124,10 +15771,10 @@
         <v>49</v>
       </c>
       <c r="B123" s="4" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D123" s="4" t="s">
         <v>2</v>
@@ -15161,7 +15808,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -15176,15 +15823,15 @@
   </sheetPr>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="M24:W26 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="1" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="31.0459183673469"/>
-    <col collapsed="false" hidden="false" max="11" min="2" style="0" width="16.8724489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="9.04591836734694"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="31.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="2" style="0" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="9.05"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15204,7 +15851,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -15602,12 +16249,12 @@
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>59</v>
@@ -15642,13 +16289,13 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>41</v>
@@ -15677,7 +16324,7 @@
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="1" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>41</v>
@@ -15686,7 +16333,7 @@
         <v>41</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>41</v>
@@ -15712,7 +16359,7 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
   </sheetData>
@@ -15722,7 +16369,7 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
